--- a/static/调研表（模板）导入模板.xlsx
+++ b/static/调研表（模板）导入模板.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -30,7 +29,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>模板名称不可为空，不超过50字。</t>
+          <t xml:space="preserve">模板名称不可为空，不超过50字。
+</t>
         </r>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>若为空，将取excel文件名作为模板名称</t>
+          <t>若不满足上述要求（将会红色背景提示，注意），将忽略此sheet页所代表的调研表模板</t>
         </r>
       </text>
     </comment>
@@ -239,7 +239,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>若为空将忽略此行问题。</t>
+          <t>若为空将忽略此行问题。
+若整个sheet页没有一条有效的问题行，将忽略此sheet页所代表的调研表模板。</t>
         </r>
       </text>
     </comment>
@@ -256,7 +257,7 @@
           </rPr>
           <t>1.单选题和多选题才需要选项，请从此列起向右单元格依次填入选项。
 2.题目类型非单选或多项的行，不需填选项，即使填写也将被忽略。
-3.题目类型为单选或多项的行，需要选项，若无选项将视作题目类型填写错误，作为单行类型处理。</t>
+3.题目类型为单选或多项的行，需要选项，若无选项将视作题目类型填写错误，作为单行文本类型处理。</t>
         </r>
       </text>
     </comment>
@@ -265,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>题目类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,18 +336,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15门专业课授课教师调查表-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +353,34 @@
   </si>
   <si>
     <t>说明内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15门专业课授课教师调查表-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,6 +598,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,18 +620,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,6 +630,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -623,7 +658,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,14 +693,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -666,13 +701,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -705,13 +733,6 @@
             <color theme="3" tint="0.59999389629810485"/>
           </stop>
         </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -1090,7 +1111,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1108,25 +1129,25 @@
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:26" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
@@ -1143,14 +1164,14 @@
       <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -1167,86 +1188,78 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>2</v>
+      <c r="D4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
+      <c r="D5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="54">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="54">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1257,10 +1270,10 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1279,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1365,32 +1378,32 @@
     <cfRule type="expression" dxfId="14" priority="34">
       <formula>OR($A4="单行文本",$A4="多行文本")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="55">
+    <cfRule type="expression" dxfId="13" priority="55">
       <formula>AND($A4="多项选择",INDEX($1:$1048576,ROW(),COLUMN())&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="56">
+    <cfRule type="expression" dxfId="12" priority="56">
       <formula>AND($A4="单项选择",INDEX($1:$1048576,ROW(),COLUMN())&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C200">
-    <cfRule type="expression" dxfId="13" priority="36">
+    <cfRule type="expression" dxfId="11" priority="36">
       <formula>$A4="多项选择"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72">
+    <cfRule type="expression" dxfId="10" priority="72">
       <formula>$A4="多行文本"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="73">
+    <cfRule type="expression" dxfId="9" priority="73">
       <formula>$A4="单行文本"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C200">
-    <cfRule type="expression" dxfId="10" priority="57">
+    <cfRule type="expression" dxfId="8" priority="57">
       <formula>$A8="多项选择"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="58">
+    <cfRule type="expression" dxfId="7" priority="58">
       <formula>$A8="单项选择"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="59">
+    <cfRule type="expression" dxfId="6" priority="59">
       <formula>$A8="多行文本"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="67">
@@ -1407,10 +1420,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:Z200">
-    <cfRule type="expression" dxfId="7" priority="63">
+    <cfRule type="expression" dxfId="1" priority="63">
       <formula>AND($A4="多项选择",INDEX($1:$1048576,ROW(),COLUMN())&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="66">
+    <cfRule type="expression" dxfId="0" priority="66">
       <formula>AND($A4="单项选择",INDEX($1:$1048576,ROW(),COLUMN())&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1423,19 +1436,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/static/调研表（模板）导入模板.xlsx
+++ b/static/调研表（模板）导入模板.xlsx
@@ -30,6 +30,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">模板名称不可为空，不超过50字。
+若此处为空，将以该sheet名称代替（不建议，缺少格式提示）。
 </t>
         </r>
         <r>
@@ -340,10 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模板名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,35 +349,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研概述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15门专业课授课教师调查表-4-重复选项的终点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>说明内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optionC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15门专业课授课教师调查表-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1112,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1129,10 +1130,10 @@
   <sheetData>
     <row r="1" spans="1:26" s="9" customFormat="1" ht="14.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
@@ -1141,10 +1142,10 @@
     </row>
     <row r="2" spans="1:26" ht="29.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
@@ -1198,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -1218,13 +1219,13 @@
         <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="54">
@@ -1235,7 +1236,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5"/>

--- a/static/调研表（模板）导入模板.xlsx
+++ b/static/调研表（模板）导入模板.xlsx
@@ -258,7 +258,8 @@
           </rPr>
           <t>1.单选题和多选题才需要选项，请从此列起向右单元格依次填入选项。
 2.题目类型非单选或多项的行，不需填选项，即使填写也将被忽略。
-3.题目类型为单选或多项的行，需要选项，若无选项将视作题目类型填写错误，作为单行文本类型处理。</t>
+3.题目类型为单选或多项的行，需要选项，若无选项将视作题目类型填写错误，作为单行文本类型处理。
+4.空白和重复选项将被忽略。为了导入执行效率，请尽量避免。</t>
         </r>
       </text>
     </comment>
@@ -1112,7 +1113,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
